--- a/biology/Botanique/Calophyllum/Calophyllum.xlsx
+++ b/biology/Botanique/Calophyllum/Calophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Calophyllum est un genre de plantes à fleurs de la famille des Calophyllaceae (ou des Clusiacées ou Guttifères) selon la classification de Cronquist (1981)). Ce sont des arbres tropicaux qui sécrètent du latex. Certains produisent des résines odorantes utilisées en pharmacopée traditionnelle.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (22 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (22 avril 2019) :
 Calophyllum acidus Kosterm.
 Calophyllum acutiputamen P.F.Stevens
 Calophyllum aerarium P.F.Stevens
@@ -696,7 +710,7 @@
 Calophyllum wallichiana Planch. &amp; Triana
 Calophyllum whitfordii Merr.
 Calophyllum woodii P.F.Stevens
-Selon Catalogue of Life                                   (22 avril 2019)[3] :
+Selon Catalogue of Life                                   (22 avril 2019) :
 Calophyllum acidus A. J. G. H. Kostermans
 Calophyllum acutiputamen P. F. Stevens
 Calophyllum aerarium P. F. Stevens
@@ -876,7 +890,7 @@
 Calophyllum wallichiana Planch. &amp; Triana
 Calophyllum whitfordii Merrill
 Calophyllum woodii P. F. Stevens
-Selon The Plant List            (22 avril 2019)[4] :
+Selon The Plant List            (22 avril 2019) :
 Calophyllum acidus Kosterm.
 Calophyllum acutiputamen P.F.Stevens
 Calophyllum aerarium P.F.Stevens
@@ -1056,7 +1070,7 @@
 Calophyllum wallichiana Planch. &amp; Triana
 Calophyllum whitfordii Merr.
 Calophyllum woodii P.F.Stevens
-Selon Tropicos                                           (22 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Calophyllum acidus Kosterm.
 Calophyllum acutiputamen P.F. Stevens
 Calophyllum aerarium P.F. Stevens
